--- a/AIC 2019 Timecard.xlsx
+++ b/AIC 2019 Timecard.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deodatusunix19a\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LearningGit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>MLK Day Holiday</t>
+  </si>
+  <si>
+    <t>SSF</t>
   </si>
 </sst>
 </file>
@@ -811,10 +814,10 @@
   <dimension ref="A1:AO443"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2143,7 +2146,9 @@
         <v>Mon</v>
       </c>
       <c r="C39" s="30"/>
-      <c r="D39" s="28"/>
+      <c r="D39" s="28" t="s">
+        <v>14</v>
+      </c>
       <c r="E39" s="28"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
